--- a/kie-dmn/kie-dmn-xls2dmn-cli/src/test/resources/Loan_approvals.xlsx
+++ b/kie-dmn/kie-dmn-xls2dmn-cli/src/test/resources/Loan_approvals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Loan Approval" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t xml:space="preserve">DMN</t>
   </si>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">HitPolicy</t>
   </si>
   <si>
-    <t xml:space="preserve">U</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">“Approved”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
   </si>
   <si>
     <t xml:space="preserve">DTI Ratio</t>
@@ -333,8 +336,8 @@
   </sheetPr>
   <dimension ref="A1:H1004"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10468,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10489,7 +10492,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -10497,7 +10500,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -10505,7 +10508,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
@@ -11522,7 +11525,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -11543,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11564,7 +11567,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -11572,7 +11575,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -11580,7 +11583,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
